--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/8/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/8/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.40265</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>5402.65</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>5.867</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>5867</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>6.35044</v>
+        <v>7.71694</v>
       </c>
       <c r="C9" t="n">
-        <v>6350.44</v>
+        <v>7716.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247932</v>
       </c>
       <c r="B10" t="n">
-        <v>6.664899999999999</v>
+        <v>8.596410000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>6664.9</v>
+        <v>8596.41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.27889</v>
+        <v>0.278857</v>
       </c>
       <c r="B11" t="n">
-        <v>6.87833</v>
+        <v>9.37684</v>
       </c>
       <c r="C11" t="n">
-        <v>6878.33</v>
+        <v>9376.84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309815</v>
+        <v>0.309782</v>
       </c>
       <c r="B12" t="n">
-        <v>7.0101</v>
+        <v>10.1973</v>
       </c>
       <c r="C12" t="n">
-        <v>7010.1</v>
+        <v>10197.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.34074</v>
+        <v>0.340707</v>
       </c>
       <c r="B13" t="n">
-        <v>7.03565</v>
+        <v>10.841</v>
       </c>
       <c r="C13" t="n">
-        <v>7035.65</v>
+        <v>10841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371665</v>
+        <v>0.371632</v>
       </c>
       <c r="B14" t="n">
-        <v>7.03268</v>
+        <v>11.474</v>
       </c>
       <c r="C14" t="n">
-        <v>7032.68</v>
+        <v>11474</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.40259</v>
+        <v>0.402557</v>
       </c>
       <c r="B15" t="n">
-        <v>7.019430000000001</v>
+        <v>11.9698</v>
       </c>
       <c r="C15" t="n">
-        <v>7019.43</v>
+        <v>11969.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433515</v>
+        <v>0.433482</v>
       </c>
       <c r="B16" t="n">
-        <v>7.00444</v>
+        <v>12.3898</v>
       </c>
       <c r="C16" t="n">
-        <v>7004.44</v>
+        <v>12389.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.46444</v>
+        <v>0.464407</v>
       </c>
       <c r="B17" t="n">
-        <v>6.98728</v>
+        <v>12.7086</v>
       </c>
       <c r="C17" t="n">
-        <v>6987.28</v>
+        <v>12708.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495365</v>
+        <v>0.495332</v>
       </c>
       <c r="B18" t="n">
-        <v>6.97031</v>
+        <v>12.8618</v>
       </c>
       <c r="C18" t="n">
-        <v>6970.31</v>
+        <v>12861.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.52629</v>
+        <v>0.526257</v>
       </c>
       <c r="B19" t="n">
-        <v>6.95199</v>
+        <v>12.852</v>
       </c>
       <c r="C19" t="n">
-        <v>6951.99</v>
+        <v>12852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557215</v>
+        <v>0.557182</v>
       </c>
       <c r="B20" t="n">
-        <v>6.9339</v>
+        <v>12.8008</v>
       </c>
       <c r="C20" t="n">
-        <v>6933.9</v>
+        <v>12800.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.58814</v>
+        <v>0.588107</v>
       </c>
       <c r="B21" t="n">
-        <v>6.91476</v>
+        <v>12.7425</v>
       </c>
       <c r="C21" t="n">
-        <v>6914.76</v>
+        <v>12742.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619182</v>
+        <v>0.61915</v>
       </c>
       <c r="B22" t="n">
-        <v>6.89545</v>
+        <v>12.6793</v>
       </c>
       <c r="C22" t="n">
-        <v>6895.45</v>
+        <v>12679.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650355</v>
+        <v>0.650322</v>
       </c>
       <c r="B23" t="n">
-        <v>6.87529</v>
+        <v>12.6036</v>
       </c>
       <c r="C23" t="n">
-        <v>6875.29</v>
+        <v>12603.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681527</v>
+        <v>0.681499</v>
       </c>
       <c r="B24" t="n">
-        <v>6.85484</v>
+        <v>12.5237</v>
       </c>
       <c r="C24" t="n">
-        <v>6854.84</v>
+        <v>12523.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712704</v>
+        <v>0.712672</v>
       </c>
       <c r="B25" t="n">
-        <v>6.83394</v>
+        <v>12.4318</v>
       </c>
       <c r="C25" t="n">
-        <v>6833.94</v>
+        <v>12431.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743877</v>
+        <v>0.7438439999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>6.81254</v>
+        <v>12.3415</v>
       </c>
       <c r="C26" t="n">
-        <v>6812.54</v>
+        <v>12341.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775054</v>
+        <v>0.775021</v>
       </c>
       <c r="B27" t="n">
-        <v>6.790640000000001</v>
+        <v>12.2347</v>
       </c>
       <c r="C27" t="n">
-        <v>6790.64</v>
+        <v>12234.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806226</v>
+        <v>0.806194</v>
       </c>
       <c r="B28" t="n">
-        <v>6.76825</v>
+        <v>12.132</v>
       </c>
       <c r="C28" t="n">
-        <v>6768.25</v>
+        <v>12132</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837399</v>
+        <v>0.8373660000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>6.74519</v>
+        <v>12.0135</v>
       </c>
       <c r="C29" t="n">
-        <v>6745.19</v>
+        <v>12013.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868576</v>
+        <v>0.868543</v>
       </c>
       <c r="B30" t="n">
-        <v>6.72126</v>
+        <v>11.8955</v>
       </c>
       <c r="C30" t="n">
-        <v>6721.26</v>
+        <v>11895.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899748</v>
+        <v>0.899716</v>
       </c>
       <c r="B31" t="n">
-        <v>6.69684</v>
+        <v>11.7689</v>
       </c>
       <c r="C31" t="n">
-        <v>6696.84</v>
+        <v>11768.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930921</v>
+        <v>0.930893</v>
       </c>
       <c r="B32" t="n">
-        <v>6.67189</v>
+        <v>11.6342</v>
       </c>
       <c r="C32" t="n">
-        <v>6671.89</v>
+        <v>11634.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962098</v>
+        <v>0.9620649999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>6.646590000000001</v>
+        <v>11.4991</v>
       </c>
       <c r="C33" t="n">
-        <v>6646.59</v>
+        <v>11499.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993271</v>
+        <v>0.993238</v>
       </c>
       <c r="B34" t="n">
-        <v>6.62066</v>
+        <v>11.349</v>
       </c>
       <c r="C34" t="n">
-        <v>6620.66</v>
+        <v>11349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02457</v>
+        <v>1.02427</v>
       </c>
       <c r="B35" t="n">
-        <v>6.594</v>
+        <v>11.203</v>
       </c>
       <c r="C35" t="n">
-        <v>6594</v>
+        <v>11203</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05524</v>
       </c>
       <c r="B36" t="n">
-        <v>6.5663</v>
+        <v>11.0412</v>
       </c>
       <c r="C36" t="n">
-        <v>6566.3</v>
+        <v>11041.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.0862</v>
       </c>
       <c r="B37" t="n">
-        <v>6.53772</v>
+        <v>10.8807</v>
       </c>
       <c r="C37" t="n">
-        <v>6537.72</v>
+        <v>10880.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11872</v>
+        <v>1.11717</v>
       </c>
       <c r="B38" t="n">
-        <v>6.50857</v>
+        <v>10.7101</v>
       </c>
       <c r="C38" t="n">
-        <v>6508.57</v>
+        <v>10710.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1501</v>
+        <v>1.14817</v>
       </c>
       <c r="B39" t="n">
-        <v>6.478770000000001</v>
+        <v>9.052479999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>6478.77</v>
+        <v>9052.48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18148</v>
+        <v>1.17893</v>
       </c>
       <c r="B40" t="n">
-        <v>6.447970000000001</v>
+        <v>6.52169</v>
       </c>
       <c r="C40" t="n">
-        <v>6447.97</v>
+        <v>6521.69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21257</v>
+        <v>1.21025</v>
       </c>
       <c r="B41" t="n">
-        <v>6.41638</v>
+        <v>9.12599</v>
       </c>
       <c r="C41" t="n">
-        <v>6416.38</v>
+        <v>9125.99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.2437</v>
+        <v>1.24166</v>
       </c>
       <c r="B42" t="n">
-        <v>6.38372</v>
+        <v>10.7273</v>
       </c>
       <c r="C42" t="n">
-        <v>6383.72</v>
+        <v>10727.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27461</v>
+        <v>1.27279</v>
       </c>
       <c r="B43" t="n">
-        <v>6.35025</v>
+        <v>9.762700000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>6350.25</v>
+        <v>9762.700000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30571</v>
+        <v>1.30352</v>
       </c>
       <c r="B44" t="n">
-        <v>6.31561</v>
+        <v>9.697570000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>6315.61</v>
+        <v>9697.57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33664</v>
+        <v>1.33464</v>
       </c>
       <c r="B45" t="n">
-        <v>6.28016</v>
+        <v>9.661899999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>6280.16</v>
+        <v>9661.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3677</v>
+        <v>1.36554</v>
       </c>
       <c r="B46" t="n">
-        <v>6.24342</v>
+        <v>9.39321</v>
       </c>
       <c r="C46" t="n">
-        <v>6243.42</v>
+        <v>9393.209999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39858</v>
+        <v>1.39647</v>
       </c>
       <c r="B47" t="n">
-        <v>6.2058</v>
+        <v>9.25572</v>
       </c>
       <c r="C47" t="n">
-        <v>6205.8</v>
+        <v>9255.719999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42973</v>
+        <v>1.42766</v>
       </c>
       <c r="B48" t="n">
-        <v>6.16671</v>
+        <v>8.95965</v>
       </c>
       <c r="C48" t="n">
-        <v>6166.71</v>
+        <v>8959.65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46057</v>
+        <v>1.45867</v>
       </c>
       <c r="B49" t="n">
-        <v>6.12659</v>
+        <v>8.858690000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>6126.59</v>
+        <v>8858.690000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49173</v>
+        <v>1.48968</v>
       </c>
       <c r="B50" t="n">
-        <v>6.08478</v>
+        <v>8.581010000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>6084.78</v>
+        <v>8581.01</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52249</v>
+        <v>1.52067</v>
       </c>
       <c r="B51" t="n">
-        <v>6.04228</v>
+        <v>8.37449</v>
       </c>
       <c r="C51" t="n">
-        <v>6042.28</v>
+        <v>8374.49</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55377</v>
+        <v>1.55171</v>
       </c>
       <c r="B52" t="n">
-        <v>5.99778</v>
+        <v>8.05457</v>
       </c>
       <c r="C52" t="n">
-        <v>5997.78</v>
+        <v>8054.57</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58447</v>
+        <v>1.5827</v>
       </c>
       <c r="B53" t="n">
-        <v>5.95258</v>
+        <v>7.966100000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>5952.58</v>
+        <v>7966.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61573</v>
+        <v>1.61365</v>
       </c>
       <c r="B54" t="n">
-        <v>5.905040000000001</v>
+        <v>7.84632</v>
       </c>
       <c r="C54" t="n">
-        <v>5905.04</v>
+        <v>7846.32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64648</v>
+        <v>1.64466</v>
       </c>
       <c r="B55" t="n">
-        <v>5.85674</v>
+        <v>7.70197</v>
       </c>
       <c r="C55" t="n">
-        <v>5856.74</v>
+        <v>7701.97</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67778</v>
+        <v>1.67563</v>
       </c>
       <c r="B56" t="n">
-        <v>5.80614</v>
+        <v>7.46482</v>
       </c>
       <c r="C56" t="n">
-        <v>5806.14</v>
+        <v>7464.82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70849</v>
+        <v>1.70688</v>
       </c>
       <c r="B57" t="n">
-        <v>5.75512</v>
+        <v>7.27098</v>
       </c>
       <c r="C57" t="n">
-        <v>5755.12</v>
+        <v>7270.98</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73975</v>
+        <v>1.73774</v>
       </c>
       <c r="B58" t="n">
-        <v>5.701680000000001</v>
+        <v>7.19181</v>
       </c>
       <c r="C58" t="n">
-        <v>5701.68</v>
+        <v>7191.81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77037</v>
+        <v>1.76899</v>
       </c>
       <c r="B59" t="n">
-        <v>5.648029999999999</v>
+        <v>7.060680000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>5648.03</v>
+        <v>7060.68</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80175</v>
+        <v>1.79998</v>
       </c>
       <c r="B60" t="n">
-        <v>5.591670000000001</v>
+        <v>6.93187</v>
       </c>
       <c r="C60" t="n">
-        <v>5591.67</v>
+        <v>6931.87</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83246</v>
+        <v>1.83068</v>
       </c>
       <c r="B61" t="n">
-        <v>5.535310000000001</v>
+        <v>6.78784</v>
       </c>
       <c r="C61" t="n">
-        <v>5535.31</v>
+        <v>6787.84</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86376</v>
+        <v>1.8621</v>
       </c>
       <c r="B62" t="n">
-        <v>5.476859999999999</v>
+        <v>6.71007</v>
       </c>
       <c r="C62" t="n">
-        <v>5476.86</v>
+        <v>6710.07</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89462</v>
+        <v>1.89301</v>
       </c>
       <c r="B63" t="n">
-        <v>5.41804</v>
+        <v>6.59899</v>
       </c>
       <c r="C63" t="n">
-        <v>5418.04</v>
+        <v>6598.99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92566</v>
+        <v>1.92378</v>
       </c>
       <c r="B64" t="n">
-        <v>5.35779</v>
+        <v>6.52361</v>
       </c>
       <c r="C64" t="n">
-        <v>5357.79</v>
+        <v>6523.61</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95677</v>
+        <v>1.95524</v>
       </c>
       <c r="B65" t="n">
-        <v>5.296489999999999</v>
+        <v>6.35958</v>
       </c>
       <c r="C65" t="n">
-        <v>5296.49</v>
+        <v>6359.58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98734</v>
+        <v>1.98599</v>
       </c>
       <c r="B66" t="n">
-        <v>5.235300000000001</v>
+        <v>6.29621</v>
       </c>
       <c r="C66" t="n">
-        <v>5235.3</v>
+        <v>6296.21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0188</v>
+        <v>2.01655</v>
       </c>
       <c r="B67" t="n">
-        <v>5.17169</v>
+        <v>6.15116</v>
       </c>
       <c r="C67" t="n">
-        <v>5171.69</v>
+        <v>6151.16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04984</v>
+        <v>2.0478</v>
       </c>
       <c r="B68" t="n">
-        <v>5.10914</v>
+        <v>6.10697</v>
       </c>
       <c r="C68" t="n">
-        <v>5109.14</v>
+        <v>6106.97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08052</v>
+        <v>2.07887</v>
       </c>
       <c r="B69" t="n">
-        <v>5.04549</v>
+        <v>6.0041</v>
       </c>
       <c r="C69" t="n">
-        <v>5045.49</v>
+        <v>6004.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11214</v>
+        <v>2.10992</v>
       </c>
       <c r="B70" t="n">
-        <v>4.98067</v>
+        <v>5.89789</v>
       </c>
       <c r="C70" t="n">
-        <v>4980.67</v>
+        <v>5897.89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14245</v>
+        <v>2.14033</v>
       </c>
       <c r="B71" t="n">
-        <v>4.91647</v>
+        <v>5.81284</v>
       </c>
       <c r="C71" t="n">
-        <v>4916.47</v>
+        <v>5812.84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17367</v>
+        <v>2.1718</v>
       </c>
       <c r="B72" t="n">
-        <v>4.85126</v>
+        <v>5.76126</v>
       </c>
       <c r="C72" t="n">
-        <v>4851.26</v>
+        <v>5761.26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20504</v>
+        <v>2.20321</v>
       </c>
       <c r="B73" t="n">
-        <v>4.785810000000001</v>
+        <v>5.68097</v>
       </c>
       <c r="C73" t="n">
-        <v>4785.81</v>
+        <v>5680.97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23544</v>
+        <v>2.23359</v>
       </c>
       <c r="B74" t="n">
-        <v>4.72183</v>
+        <v>5.57769</v>
       </c>
       <c r="C74" t="n">
-        <v>4721.83</v>
+        <v>5577.69</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26673</v>
+        <v>2.26388</v>
       </c>
       <c r="B75" t="n">
-        <v>4.65703</v>
+        <v>5.508640000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>4657.03</v>
+        <v>5508.64</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.2979</v>
+        <v>2.29505</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59172</v>
+        <v>5.47053</v>
       </c>
       <c r="C76" t="n">
-        <v>4591.72</v>
+        <v>5470.53</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32862</v>
+        <v>2.32578</v>
       </c>
       <c r="B77" t="n">
-        <v>4.528020000000001</v>
+        <v>5.44187</v>
       </c>
       <c r="C77" t="n">
-        <v>4528.02</v>
+        <v>5441.87</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35934</v>
+        <v>2.3565</v>
       </c>
       <c r="B78" t="n">
-        <v>4.465590000000001</v>
+        <v>5.444319999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>4465.59</v>
+        <v>5444.32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39073</v>
+        <v>2.38761</v>
       </c>
       <c r="B79" t="n">
-        <v>4.40045</v>
+        <v>5.435020000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>4400.45</v>
+        <v>5435.02</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42182</v>
+        <v>2.4189</v>
       </c>
       <c r="B80" t="n">
-        <v>4.33713</v>
+        <v>5.43153</v>
       </c>
       <c r="C80" t="n">
-        <v>4337.13</v>
+        <v>5431.53</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.4529</v>
+        <v>2.44745</v>
       </c>
       <c r="B81" t="n">
-        <v>4.27598</v>
+        <v>5.44031</v>
       </c>
       <c r="C81" t="n">
-        <v>4275.98</v>
+        <v>5440.31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48274</v>
+        <v>2.47643</v>
       </c>
       <c r="B82" t="n">
-        <v>4.21732</v>
+        <v>5.4447</v>
       </c>
       <c r="C82" t="n">
-        <v>4217.32</v>
+        <v>5444.7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.512</v>
+        <v>2.51149</v>
       </c>
       <c r="B83" t="n">
-        <v>4.160760000000001</v>
+        <v>5.3788</v>
       </c>
       <c r="C83" t="n">
-        <v>4160.76</v>
+        <v>5378.8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54264</v>
+        <v>2.54669</v>
       </c>
       <c r="B84" t="n">
-        <v>4.10419</v>
+        <v>5.4143</v>
       </c>
       <c r="C84" t="n">
-        <v>4104.19</v>
+        <v>5414.3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57251</v>
+        <v>2.58008</v>
       </c>
       <c r="B85" t="n">
-        <v>4.05009</v>
+        <v>5.36465</v>
       </c>
       <c r="C85" t="n">
-        <v>4050.09</v>
+        <v>5364.65</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60237</v>
+        <v>2.61209</v>
       </c>
       <c r="B86" t="n">
-        <v>3.99649</v>
+        <v>5.303</v>
       </c>
       <c r="C86" t="n">
-        <v>3996.49</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63224</v>
+        <v>2.64409</v>
       </c>
       <c r="B87" t="n">
-        <v>3.9441</v>
+        <v>5.325600000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>3944.1</v>
+        <v>5325.6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66211</v>
+        <v>2.67609</v>
       </c>
       <c r="B88" t="n">
-        <v>3.89385</v>
+        <v>5.28898</v>
       </c>
       <c r="C88" t="n">
-        <v>3893.85</v>
+        <v>5288.98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69198</v>
+        <v>2.70809</v>
       </c>
       <c r="B89" t="n">
-        <v>3.84542</v>
+        <v>5.289239999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>3845.42</v>
+        <v>5289.24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72184</v>
+        <v>2.74009</v>
       </c>
       <c r="B90" t="n">
-        <v>3.79802</v>
+        <v>5.25049</v>
       </c>
       <c r="C90" t="n">
-        <v>3798.02</v>
+        <v>5250.49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75171</v>
+        <v>2.77209</v>
       </c>
       <c r="B91" t="n">
-        <v>3.75274</v>
+        <v>5.22526</v>
       </c>
       <c r="C91" t="n">
-        <v>3752.74</v>
+        <v>5225.26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78158</v>
+        <v>2.80409</v>
       </c>
       <c r="B92" t="n">
-        <v>3.70932</v>
+        <v>5.19998</v>
       </c>
       <c r="C92" t="n">
-        <v>3709.32</v>
+        <v>5199.98</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81104</v>
+        <v>2.83431</v>
       </c>
       <c r="B93" t="n">
-        <v>3.66745</v>
+        <v>5.16128</v>
       </c>
       <c r="C93" t="n">
-        <v>3667.45</v>
+        <v>5161.28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84028</v>
+        <v>2.86313</v>
       </c>
       <c r="B94" t="n">
-        <v>3.62555</v>
+        <v>5.1075</v>
       </c>
       <c r="C94" t="n">
-        <v>3625.55</v>
+        <v>5107.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.87087</v>
+        <v>2.89193</v>
       </c>
       <c r="B95" t="n">
-        <v>3.59453</v>
+        <v>5.05708</v>
       </c>
       <c r="C95" t="n">
-        <v>3594.53</v>
+        <v>5057.08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.90526</v>
+        <v>2.92073</v>
       </c>
       <c r="B96" t="n">
-        <v>3.56567</v>
+        <v>5.06396</v>
       </c>
       <c r="C96" t="n">
-        <v>3565.67</v>
+        <v>5063.96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.93892</v>
+        <v>2.94953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.54456</v>
+        <v>5.05734</v>
       </c>
       <c r="C97" t="n">
-        <v>3544.56</v>
+        <v>5057.34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97092</v>
+        <v>2.97833</v>
       </c>
       <c r="B98" t="n">
-        <v>3.52576</v>
+        <v>5.00239</v>
       </c>
       <c r="C98" t="n">
-        <v>3525.76</v>
+        <v>5002.39</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00292</v>
+        <v>3.00713</v>
       </c>
       <c r="B99" t="n">
-        <v>3.5101</v>
+        <v>5.01013</v>
       </c>
       <c r="C99" t="n">
-        <v>3510.1</v>
+        <v>5010.13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03492</v>
+        <v>3.03593</v>
       </c>
       <c r="B100" t="n">
-        <v>3.49259</v>
+        <v>4.91657</v>
       </c>
       <c r="C100" t="n">
-        <v>3492.59</v>
+        <v>4916.57</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06692</v>
+        <v>3.06473</v>
       </c>
       <c r="B101" t="n">
-        <v>3.47808</v>
+        <v>4.919270000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>3478.08</v>
+        <v>4919.27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09892</v>
+        <v>3.09353</v>
       </c>
       <c r="B102" t="n">
-        <v>3.46247</v>
+        <v>4.89465</v>
       </c>
       <c r="C102" t="n">
-        <v>3462.47</v>
+        <v>4894.65</v>
       </c>
     </row>
   </sheetData>
